--- a/webdriverio-appium-cucumber/TestCases.xlsx
+++ b/webdriverio-appium-cucumber/TestCases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krushna/Downloads/webdriverio-test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krushna/Downloads/webdriverio-appium-cucumber/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AFDC11-DC99-7C46-8DE3-D591790860DF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CC7E73-502A-3D41-9ECF-8A25124FBC52}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" xr2:uid="{7C40C7D3-5971-7D48-8668-2365ABE27E48}"/>
   </bookViews>
@@ -248,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -268,9 +268,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -598,7 +595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862A6E3D-9F22-F341-941C-2625CFEFF092}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -692,7 +689,9 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
         <v>16</v>
@@ -706,7 +705,7 @@
     </row>
     <row r="8" spans="1:7" ht="42" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
@@ -723,7 +722,7 @@
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
@@ -738,7 +737,7 @@
     </row>
     <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>20</v>
@@ -755,7 +754,7 @@
     </row>
     <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
@@ -769,7 +768,9 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
         <v>25</v>
@@ -782,7 +783,9 @@
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2">
+        <v>9</v>
+      </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
         <v>31</v>
@@ -798,7 +801,7 @@
     </row>
     <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>21</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
@@ -830,7 +833,7 @@
     </row>
     <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -847,7 +850,7 @@
     </row>
     <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
@@ -862,7 +865,7 @@
     </row>
     <row r="18" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>35</v>
@@ -878,7 +881,9 @@
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2">
+        <v>15</v>
+      </c>
       <c r="B19" s="3" t="s">
         <v>39</v>
       </c>
@@ -894,7 +899,7 @@
     </row>
     <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>35</v>
@@ -911,7 +916,7 @@
     </row>
     <row r="21" spans="1:8" ht="42" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>39</v>
@@ -926,14 +931,14 @@
       <c r="F21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="12"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>43</v>
@@ -949,18 +954,18 @@
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <v>15</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10" t="s">
+      <c r="A23" s="2">
+        <v>19</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
       <c r="G23" s="7"/>
     </row>
   </sheetData>
